--- a/img/PerformanceComparison.xlsx
+++ b/img/PerformanceComparison.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritz/Desktop/git/sse-master-thesis/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{84DDBE74-8877-8D4F-A2FD-0BD4F3E81B61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02E7036B-FF6E-0344-96CF-B369B47AEA70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="26160" windowHeight="14340"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="25960" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceComparison" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">PerformanceComparison!$A$1:$KT$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">PerformanceComparison!$A$2:$KT$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">PerformanceComparison!$A$3:$KT$3</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -8166,6 +8161,2241 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PerformanceComparison!$A$2:$KT$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="306"/>
+                <c:pt idx="0">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9220</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3113</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3073</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2233</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2879</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2242</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2797</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2435</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2447</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2659</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2706</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2763</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2589</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2602</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67D4-1C43-9716-3CD3C3805730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>VarChange</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PerformanceComparison!$A$1:$KT$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="306"/>
+                <c:pt idx="0">
+                  <c:v>5663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1785</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2297</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3174</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3488</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67D4-1C43-9716-3CD3C3805730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="188500064"/>
+        <c:axId val="227813872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="188500064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Commit-File-Nr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227813872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227813872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188500064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8247,6 +10477,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9834,20 +12104,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>112067</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9877,15 +12663,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>239067</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:colOff>340667</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9945,6 +12731,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>331716</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>189552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104297</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35252</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E013FE73-2251-9E40-A88F-D0C87777A524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10249,11 +13073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/img/PerformanceComparison.xlsx
+++ b/img/PerformanceComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritz/Desktop/git/sse-master-thesis/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02E7036B-FF6E-0344-96CF-B369B47AEA70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2894F70-A6BC-E349-AE50-D14B16D407AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="25960" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceComparison" sheetId="1" r:id="rId1"/>
@@ -10396,6 +10396,6272 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>VarChange</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PerformanceComparison!$A$1:$KT$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="306"/>
+                <c:pt idx="0">
+                  <c:v>5663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1785</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2297</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3174</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3758</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1795</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3488</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E454-084D-8952-BC699FC92E63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Change</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PerformanceComparison!$A$2:$KT$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="306"/>
+                <c:pt idx="0">
+                  <c:v>2928</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3198</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9220</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3113</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3073</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2233</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2092</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2879</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2242</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2797</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2435</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2447</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2451</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2659</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2706</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2133</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2464</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2763</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2545</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2598</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2589</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2602</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E454-084D-8952-BC699FC92E63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PerformanceComparison!$A$3:$KT$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="306"/>
+                <c:pt idx="0">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2328</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2414</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2514</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2748</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2828</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2773</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2539</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2544</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2659</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2627</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2242</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2527</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2463</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2916</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2416</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2443</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2447</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2828</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2217</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2917</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4148</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2582</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2404</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3789</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2285</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2804</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2517</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2243</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2694</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2418</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2777</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2573</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2573</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3058</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2698</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2736</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2643</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2528</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2209</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2824</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2707</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2695</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2699</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2313</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2417</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2469</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2879</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3143</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2455</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2538</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2548</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2771</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2407</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2507</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2899</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2349</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2332</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2953</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2497</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2736</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2371</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2248</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2636</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2774</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2683</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E454-084D-8952-BC699FC92E63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>NoFilter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PerformanceComparison!$A$4:$KT$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="306"/>
+                <c:pt idx="0">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2796</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3124</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2233</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2723</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2745</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2864</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2831</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3395</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2309</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2574</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2854</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2505</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3080</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2924</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2438</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2709</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3122</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2847</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3058</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2229</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2427</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2727</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2939</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4208</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2843</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2468</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2863</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2442</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2439</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2764</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3087</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2727</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2866</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3678</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3405</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2535</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2567</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2705</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2765</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2752</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2979</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3327</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2763</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3103</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2906</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2222</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2858</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2927</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2949</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2808</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2974</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3059</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2524</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2756</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2452</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2708</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2916</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3344</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2302</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2942</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2935</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2777</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2483</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5879</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2378</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2916</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3112</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3145</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2935</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2962</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3293</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3051</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3315</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2976</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3008</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2869</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2902</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2426</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2795</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2505</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73A6-8246-A020-4F6A8BCC6858}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="188500064"/>
+        <c:axId val="227813872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="188500064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Commit-File-Nr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227813872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227813872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188500064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FilterOff</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PerformanceComparison!$A$4:$KT$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="306"/>
+                <c:pt idx="0">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2983</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2818</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2785</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2796</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3124</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2743</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2917</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2233</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3105</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2723</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2745</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3157</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3280</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2864</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2661</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2831</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3395</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2309</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2574</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3216</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2549</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2854</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2505</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3080</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2924</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2438</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2489</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2709</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3122</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2847</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2841</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3058</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2229</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2427</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2901</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2727</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2245</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2939</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2504</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2187</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4208</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2843</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3205</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2468</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2863</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2639</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2442</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2587</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2439</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2764</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3087</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2727</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3033</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2875</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2866</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3678</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2307</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2304</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3405</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2535</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2567</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3068</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2896</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2705</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2938</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2765</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2596</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2752</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2979</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3327</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2763</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2163</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3103</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2906</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2222</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2628</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2858</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2135</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2973</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2196</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2927</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2943</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2949</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2808</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2974</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3059</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2524</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2807</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2756</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2678</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2452</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2432</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2708</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2916</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3344</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2302</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3079</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3032</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2942</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3144</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2935</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2777</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3053</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2483</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2769</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5879</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2883</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2378</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2916</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2890</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2937</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3112</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3145</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2935</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2783</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2962</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2479</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3293</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3064</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3051</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3315</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2976</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3008</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2869</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2902</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2426</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2795</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2505</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3065</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DEF3-4A49-95B3-DDB79881FC12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ref</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PerformanceComparison!$A$3:$KT$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="306"/>
+                <c:pt idx="0">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2876</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2328</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2414</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2514</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2788</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2431</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2748</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3177</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2830</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2236</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2631</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2577</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2592</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2087</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2828</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2612</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2773</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2539</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2294</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2544</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3303</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2659</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2627</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2242</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2527</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2463</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2177</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2689</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2916</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2204</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2583</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2416</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2443</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2447</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2828</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2413</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2217</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2917</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2121</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4148</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2582</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2379</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2404</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3789</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2285</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2697</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2804</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2646</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2517</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2181</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2874</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2243</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2694</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2440</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2561</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2418</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1803</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2777</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2907</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2415</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2573</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2465</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2573</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3058</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2315</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2698</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1819</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2408</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2715</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2736</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2643</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2528</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2209</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2388</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2478</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2824</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2255</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2707</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2231</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2992</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2695</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2699</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3045</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2313</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2434</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2417</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2093</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2469</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2879</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3143</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2455</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2538</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2063</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2292</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2548</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1868</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2972</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2617</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2816</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2665</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2771</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2782</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2621</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2407</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2289</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2507</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2506</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1836</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2091</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2481</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2458</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2558</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2899</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2084</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2349</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2332</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2372</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2849</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2953</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2497</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2403</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2736</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2371</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1830</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2248</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2636</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2422</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2774</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2683</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2527</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DEF3-4A49-95B3-DDB79881FC12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="188500064"/>
+        <c:axId val="227813872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="188500064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Commit-File-Nr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="227813872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="227813872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="188500064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10517,6 +16783,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12620,6 +18966,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12769,6 +20147,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454967</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982F03B8-ADC9-704C-8F5A-F83FDC3DA71C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>800407</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFD5B6A-9667-664D-A2BD-40978B56FC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13074,10 +20528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KT3"/>
+  <dimension ref="A1:KT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15842,8 +23296,929 @@
         <v>2527</v>
       </c>
     </row>
+    <row r="4" spans="1:306" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2825</v>
+      </c>
+      <c r="B4">
+        <v>2696</v>
+      </c>
+      <c r="C4">
+        <v>2718</v>
+      </c>
+      <c r="D4">
+        <v>2740</v>
+      </c>
+      <c r="E4">
+        <v>2780</v>
+      </c>
+      <c r="F4">
+        <v>2690</v>
+      </c>
+      <c r="G4">
+        <v>2175</v>
+      </c>
+      <c r="H4">
+        <v>3156</v>
+      </c>
+      <c r="I4">
+        <v>2983</v>
+      </c>
+      <c r="J4">
+        <v>2159</v>
+      </c>
+      <c r="K4">
+        <v>2801</v>
+      </c>
+      <c r="L4">
+        <v>2818</v>
+      </c>
+      <c r="M4">
+        <v>2294</v>
+      </c>
+      <c r="N4">
+        <v>2901</v>
+      </c>
+      <c r="O4">
+        <v>2680</v>
+      </c>
+      <c r="P4">
+        <v>2785</v>
+      </c>
+      <c r="Q4">
+        <v>2796</v>
+      </c>
+      <c r="R4">
+        <v>2925</v>
+      </c>
+      <c r="S4">
+        <v>2331</v>
+      </c>
+      <c r="T4">
+        <v>3124</v>
+      </c>
+      <c r="U4">
+        <v>2543</v>
+      </c>
+      <c r="V4">
+        <v>2806</v>
+      </c>
+      <c r="W4">
+        <v>2892</v>
+      </c>
+      <c r="X4">
+        <v>3018</v>
+      </c>
+      <c r="Y4">
+        <v>2280</v>
+      </c>
+      <c r="Z4">
+        <v>2743</v>
+      </c>
+      <c r="AA4">
+        <v>3399</v>
+      </c>
+      <c r="AB4">
+        <v>2357</v>
+      </c>
+      <c r="AC4">
+        <v>2875</v>
+      </c>
+      <c r="AD4">
+        <v>2491</v>
+      </c>
+      <c r="AE4">
+        <v>2500</v>
+      </c>
+      <c r="AF4">
+        <v>2917</v>
+      </c>
+      <c r="AG4">
+        <v>2204</v>
+      </c>
+      <c r="AH4">
+        <v>2233</v>
+      </c>
+      <c r="AI4">
+        <v>3105</v>
+      </c>
+      <c r="AJ4">
+        <v>2723</v>
+      </c>
+      <c r="AK4">
+        <v>2745</v>
+      </c>
+      <c r="AL4">
+        <v>3450</v>
+      </c>
+      <c r="AM4">
+        <v>2231</v>
+      </c>
+      <c r="AN4">
+        <v>3157</v>
+      </c>
+      <c r="AO4">
+        <v>2841</v>
+      </c>
+      <c r="AP4">
+        <v>2504</v>
+      </c>
+      <c r="AQ4">
+        <v>2687</v>
+      </c>
+      <c r="AR4">
+        <v>2813</v>
+      </c>
+      <c r="AS4">
+        <v>3280</v>
+      </c>
+      <c r="AT4">
+        <v>397</v>
+      </c>
+      <c r="AU4">
+        <v>398</v>
+      </c>
+      <c r="AV4">
+        <v>398</v>
+      </c>
+      <c r="AW4">
+        <v>397</v>
+      </c>
+      <c r="AX4">
+        <v>397</v>
+      </c>
+      <c r="AY4">
+        <v>396</v>
+      </c>
+      <c r="AZ4">
+        <v>397</v>
+      </c>
+      <c r="BA4">
+        <v>397</v>
+      </c>
+      <c r="BB4">
+        <v>397</v>
+      </c>
+      <c r="BC4">
+        <v>398</v>
+      </c>
+      <c r="BD4">
+        <v>397</v>
+      </c>
+      <c r="BE4">
+        <v>399</v>
+      </c>
+      <c r="BF4">
+        <v>397</v>
+      </c>
+      <c r="BG4">
+        <v>397</v>
+      </c>
+      <c r="BH4">
+        <v>397</v>
+      </c>
+      <c r="BI4">
+        <v>398</v>
+      </c>
+      <c r="BJ4">
+        <v>397</v>
+      </c>
+      <c r="BK4">
+        <v>398</v>
+      </c>
+      <c r="BL4">
+        <v>398</v>
+      </c>
+      <c r="BM4">
+        <v>398</v>
+      </c>
+      <c r="BN4">
+        <v>397</v>
+      </c>
+      <c r="BO4">
+        <v>397</v>
+      </c>
+      <c r="BP4">
+        <v>398</v>
+      </c>
+      <c r="BQ4">
+        <v>397</v>
+      </c>
+      <c r="BR4">
+        <v>398</v>
+      </c>
+      <c r="BS4">
+        <v>398</v>
+      </c>
+      <c r="BT4">
+        <v>398</v>
+      </c>
+      <c r="BU4">
+        <v>398</v>
+      </c>
+      <c r="BV4">
+        <v>397</v>
+      </c>
+      <c r="BW4">
+        <v>397</v>
+      </c>
+      <c r="BX4">
+        <v>398</v>
+      </c>
+      <c r="BY4">
+        <v>397</v>
+      </c>
+      <c r="BZ4">
+        <v>398</v>
+      </c>
+      <c r="CA4">
+        <v>397</v>
+      </c>
+      <c r="CB4">
+        <v>397</v>
+      </c>
+      <c r="CC4">
+        <v>398</v>
+      </c>
+      <c r="CD4">
+        <v>397</v>
+      </c>
+      <c r="CE4">
+        <v>398</v>
+      </c>
+      <c r="CF4">
+        <v>397</v>
+      </c>
+      <c r="CG4">
+        <v>397</v>
+      </c>
+      <c r="CH4">
+        <v>397</v>
+      </c>
+      <c r="CI4">
+        <v>396</v>
+      </c>
+      <c r="CJ4">
+        <v>397</v>
+      </c>
+      <c r="CK4">
+        <v>396</v>
+      </c>
+      <c r="CL4">
+        <v>397</v>
+      </c>
+      <c r="CM4">
+        <v>398</v>
+      </c>
+      <c r="CN4">
+        <v>397</v>
+      </c>
+      <c r="CO4">
+        <v>397</v>
+      </c>
+      <c r="CP4">
+        <v>397</v>
+      </c>
+      <c r="CQ4">
+        <v>397</v>
+      </c>
+      <c r="CR4">
+        <v>397</v>
+      </c>
+      <c r="CS4">
+        <v>397</v>
+      </c>
+      <c r="CT4">
+        <v>397</v>
+      </c>
+      <c r="CU4">
+        <v>397</v>
+      </c>
+      <c r="CV4">
+        <v>397</v>
+      </c>
+      <c r="CW4">
+        <v>397</v>
+      </c>
+      <c r="CX4">
+        <v>397</v>
+      </c>
+      <c r="CY4">
+        <v>397</v>
+      </c>
+      <c r="CZ4">
+        <v>397</v>
+      </c>
+      <c r="DA4">
+        <v>398</v>
+      </c>
+      <c r="DB4">
+        <v>397</v>
+      </c>
+      <c r="DC4">
+        <v>397</v>
+      </c>
+      <c r="DD4">
+        <v>397</v>
+      </c>
+      <c r="DE4">
+        <v>397</v>
+      </c>
+      <c r="DF4">
+        <v>397</v>
+      </c>
+      <c r="DG4">
+        <v>398</v>
+      </c>
+      <c r="DH4">
+        <v>397</v>
+      </c>
+      <c r="DI4">
+        <v>397</v>
+      </c>
+      <c r="DJ4">
+        <v>396</v>
+      </c>
+      <c r="DK4">
+        <v>397</v>
+      </c>
+      <c r="DL4">
+        <v>397</v>
+      </c>
+      <c r="DM4">
+        <v>2864</v>
+      </c>
+      <c r="DN4">
+        <v>2170</v>
+      </c>
+      <c r="DO4">
+        <v>2661</v>
+      </c>
+      <c r="DP4">
+        <v>2806</v>
+      </c>
+      <c r="DQ4">
+        <v>2831</v>
+      </c>
+      <c r="DR4">
+        <v>2776</v>
+      </c>
+      <c r="DS4">
+        <v>3395</v>
+      </c>
+      <c r="DT4">
+        <v>2697</v>
+      </c>
+      <c r="DU4">
+        <v>2309</v>
+      </c>
+      <c r="DV4">
+        <v>2574</v>
+      </c>
+      <c r="DW4">
+        <v>2606</v>
+      </c>
+      <c r="DX4">
+        <v>3216</v>
+      </c>
+      <c r="DY4">
+        <v>2572</v>
+      </c>
+      <c r="DZ4">
+        <v>2549</v>
+      </c>
+      <c r="EA4">
+        <v>2854</v>
+      </c>
+      <c r="EB4">
+        <v>2505</v>
+      </c>
+      <c r="EC4">
+        <v>3080</v>
+      </c>
+      <c r="ED4">
+        <v>2924</v>
+      </c>
+      <c r="EE4">
+        <v>2438</v>
+      </c>
+      <c r="EF4">
+        <v>2489</v>
+      </c>
+      <c r="EG4">
+        <v>2709</v>
+      </c>
+      <c r="EH4">
+        <v>2687</v>
+      </c>
+      <c r="EI4">
+        <v>3122</v>
+      </c>
+      <c r="EJ4">
+        <v>2847</v>
+      </c>
+      <c r="EK4">
+        <v>2610</v>
+      </c>
+      <c r="EL4">
+        <v>2841</v>
+      </c>
+      <c r="EM4">
+        <v>2347</v>
+      </c>
+      <c r="EN4">
+        <v>3058</v>
+      </c>
+      <c r="EO4">
+        <v>2175</v>
+      </c>
+      <c r="EP4">
+        <v>2229</v>
+      </c>
+      <c r="EQ4">
+        <v>2427</v>
+      </c>
+      <c r="ER4">
+        <v>2901</v>
+      </c>
+      <c r="ES4">
+        <v>2727</v>
+      </c>
+      <c r="ET4">
+        <v>2245</v>
+      </c>
+      <c r="EU4">
+        <v>2973</v>
+      </c>
+      <c r="EV4">
+        <v>2720</v>
+      </c>
+      <c r="EW4">
+        <v>2939</v>
+      </c>
+      <c r="EX4">
+        <v>2775</v>
+      </c>
+      <c r="EY4">
+        <v>2504</v>
+      </c>
+      <c r="EZ4">
+        <v>2187</v>
+      </c>
+      <c r="FA4">
+        <v>2640</v>
+      </c>
+      <c r="FB4">
+        <v>2810</v>
+      </c>
+      <c r="FC4">
+        <v>4208</v>
+      </c>
+      <c r="FD4">
+        <v>2651</v>
+      </c>
+      <c r="FE4">
+        <v>3050</v>
+      </c>
+      <c r="FF4">
+        <v>2843</v>
+      </c>
+      <c r="FG4">
+        <v>3205</v>
+      </c>
+      <c r="FH4">
+        <v>2468</v>
+      </c>
+      <c r="FI4">
+        <v>2863</v>
+      </c>
+      <c r="FJ4">
+        <v>3032</v>
+      </c>
+      <c r="FK4">
+        <v>2639</v>
+      </c>
+      <c r="FL4">
+        <v>2442</v>
+      </c>
+      <c r="FM4">
+        <v>2912</v>
+      </c>
+      <c r="FN4">
+        <v>2587</v>
+      </c>
+      <c r="FO4">
+        <v>2937</v>
+      </c>
+      <c r="FP4">
+        <v>2384</v>
+      </c>
+      <c r="FQ4">
+        <v>2439</v>
+      </c>
+      <c r="FR4">
+        <v>2764</v>
+      </c>
+      <c r="FS4">
+        <v>3087</v>
+      </c>
+      <c r="FT4">
+        <v>2727</v>
+      </c>
+      <c r="FU4">
+        <v>2408</v>
+      </c>
+      <c r="FV4">
+        <v>2889</v>
+      </c>
+      <c r="FW4">
+        <v>3033</v>
+      </c>
+      <c r="FX4">
+        <v>2496</v>
+      </c>
+      <c r="FY4">
+        <v>2875</v>
+      </c>
+      <c r="FZ4">
+        <v>2866</v>
+      </c>
+      <c r="GA4">
+        <v>3678</v>
+      </c>
+      <c r="GB4">
+        <v>2198</v>
+      </c>
+      <c r="GC4">
+        <v>2307</v>
+      </c>
+      <c r="GD4">
+        <v>2817</v>
+      </c>
+      <c r="GE4">
+        <v>2304</v>
+      </c>
+      <c r="GF4">
+        <v>3405</v>
+      </c>
+      <c r="GG4">
+        <v>2816</v>
+      </c>
+      <c r="GH4">
+        <v>2535</v>
+      </c>
+      <c r="GI4">
+        <v>2292</v>
+      </c>
+      <c r="GJ4">
+        <v>2567</v>
+      </c>
+      <c r="GK4">
+        <v>2433</v>
+      </c>
+      <c r="GL4">
+        <v>3068</v>
+      </c>
+      <c r="GM4">
+        <v>2641</v>
+      </c>
+      <c r="GN4">
+        <v>2896</v>
+      </c>
+      <c r="GO4">
+        <v>2263</v>
+      </c>
+      <c r="GP4">
+        <v>2705</v>
+      </c>
+      <c r="GQ4">
+        <v>2903</v>
+      </c>
+      <c r="GR4">
+        <v>2938</v>
+      </c>
+      <c r="GS4">
+        <v>2765</v>
+      </c>
+      <c r="GT4">
+        <v>2465</v>
+      </c>
+      <c r="GU4">
+        <v>2596</v>
+      </c>
+      <c r="GV4">
+        <v>2752</v>
+      </c>
+      <c r="GW4">
+        <v>3065</v>
+      </c>
+      <c r="GX4">
+        <v>2979</v>
+      </c>
+      <c r="GY4">
+        <v>3327</v>
+      </c>
+      <c r="GZ4">
+        <v>2763</v>
+      </c>
+      <c r="HA4">
+        <v>2377</v>
+      </c>
+      <c r="HB4">
+        <v>2845</v>
+      </c>
+      <c r="HC4">
+        <v>2163</v>
+      </c>
+      <c r="HD4">
+        <v>3103</v>
+      </c>
+      <c r="HE4">
+        <v>2880</v>
+      </c>
+      <c r="HF4">
+        <v>2906</v>
+      </c>
+      <c r="HG4">
+        <v>2222</v>
+      </c>
+      <c r="HH4">
+        <v>2628</v>
+      </c>
+      <c r="HI4">
+        <v>2448</v>
+      </c>
+      <c r="HJ4">
+        <v>2858</v>
+      </c>
+      <c r="HK4">
+        <v>2135</v>
+      </c>
+      <c r="HL4">
+        <v>3406</v>
+      </c>
+      <c r="HM4">
+        <v>2581</v>
+      </c>
+      <c r="HN4">
+        <v>2973</v>
+      </c>
+      <c r="HO4">
+        <v>2196</v>
+      </c>
+      <c r="HP4">
+        <v>2927</v>
+      </c>
+      <c r="HQ4">
+        <v>2453</v>
+      </c>
+      <c r="HR4">
+        <v>2308</v>
+      </c>
+      <c r="HS4">
+        <v>2943</v>
+      </c>
+      <c r="HT4">
+        <v>2949</v>
+      </c>
+      <c r="HU4">
+        <v>2808</v>
+      </c>
+      <c r="HV4">
+        <v>2974</v>
+      </c>
+      <c r="HW4">
+        <v>3059</v>
+      </c>
+      <c r="HX4">
+        <v>2556</v>
+      </c>
+      <c r="HY4">
+        <v>2524</v>
+      </c>
+      <c r="HZ4">
+        <v>2807</v>
+      </c>
+      <c r="IA4">
+        <v>2756</v>
+      </c>
+      <c r="IB4">
+        <v>2678</v>
+      </c>
+      <c r="IC4">
+        <v>2408</v>
+      </c>
+      <c r="ID4">
+        <v>2452</v>
+      </c>
+      <c r="IE4">
+        <v>2951</v>
+      </c>
+      <c r="IF4">
+        <v>2865</v>
+      </c>
+      <c r="IG4">
+        <v>3017</v>
+      </c>
+      <c r="IH4">
+        <v>3081</v>
+      </c>
+      <c r="II4">
+        <v>2898</v>
+      </c>
+      <c r="IJ4">
+        <v>2432</v>
+      </c>
+      <c r="IK4">
+        <v>2441</v>
+      </c>
+      <c r="IL4">
+        <v>2708</v>
+      </c>
+      <c r="IM4">
+        <v>2916</v>
+      </c>
+      <c r="IN4">
+        <v>3344</v>
+      </c>
+      <c r="IO4">
+        <v>2302</v>
+      </c>
+      <c r="IP4">
+        <v>3079</v>
+      </c>
+      <c r="IQ4">
+        <v>2456</v>
+      </c>
+      <c r="IR4">
+        <v>3032</v>
+      </c>
+      <c r="IS4">
+        <v>2621</v>
+      </c>
+      <c r="IT4">
+        <v>2942</v>
+      </c>
+      <c r="IU4">
+        <v>3144</v>
+      </c>
+      <c r="IV4">
+        <v>2645</v>
+      </c>
+      <c r="IW4">
+        <v>2935</v>
+      </c>
+      <c r="IX4">
+        <v>2777</v>
+      </c>
+      <c r="IY4">
+        <v>3053</v>
+      </c>
+      <c r="IZ4">
+        <v>2340</v>
+      </c>
+      <c r="JA4">
+        <v>2318</v>
+      </c>
+      <c r="JB4">
+        <v>2483</v>
+      </c>
+      <c r="JC4">
+        <v>2189</v>
+      </c>
+      <c r="JD4">
+        <v>2830</v>
+      </c>
+      <c r="JE4">
+        <v>2769</v>
+      </c>
+      <c r="JF4">
+        <v>5879</v>
+      </c>
+      <c r="JG4">
+        <v>2883</v>
+      </c>
+      <c r="JH4">
+        <v>2782</v>
+      </c>
+      <c r="JI4">
+        <v>2378</v>
+      </c>
+      <c r="JJ4">
+        <v>2916</v>
+      </c>
+      <c r="JK4">
+        <v>2890</v>
+      </c>
+      <c r="JL4">
+        <v>2660</v>
+      </c>
+      <c r="JM4">
+        <v>2937</v>
+      </c>
+      <c r="JN4">
+        <v>2870</v>
+      </c>
+      <c r="JO4">
+        <v>2516</v>
+      </c>
+      <c r="JP4">
+        <v>3112</v>
+      </c>
+      <c r="JQ4">
+        <v>2689</v>
+      </c>
+      <c r="JR4">
+        <v>3145</v>
+      </c>
+      <c r="JS4">
+        <v>2889</v>
+      </c>
+      <c r="JT4">
+        <v>2935</v>
+      </c>
+      <c r="JU4">
+        <v>2783</v>
+      </c>
+      <c r="JV4">
+        <v>2560</v>
+      </c>
+      <c r="JW4">
+        <v>2940</v>
+      </c>
+      <c r="JX4">
+        <v>2289</v>
+      </c>
+      <c r="JY4">
+        <v>2079</v>
+      </c>
+      <c r="JZ4">
+        <v>2962</v>
+      </c>
+      <c r="KA4">
+        <v>2479</v>
+      </c>
+      <c r="KB4">
+        <v>3293</v>
+      </c>
+      <c r="KC4">
+        <v>3064</v>
+      </c>
+      <c r="KD4">
+        <v>2510</v>
+      </c>
+      <c r="KE4">
+        <v>3051</v>
+      </c>
+      <c r="KF4">
+        <v>3315</v>
+      </c>
+      <c r="KG4">
+        <v>2976</v>
+      </c>
+      <c r="KH4">
+        <v>3008</v>
+      </c>
+      <c r="KI4">
+        <v>2869</v>
+      </c>
+      <c r="KJ4">
+        <v>2902</v>
+      </c>
+      <c r="KK4">
+        <v>2426</v>
+      </c>
+      <c r="KL4">
+        <v>2389</v>
+      </c>
+      <c r="KM4">
+        <v>3044</v>
+      </c>
+      <c r="KN4">
+        <v>2186</v>
+      </c>
+      <c r="KO4">
+        <v>2795</v>
+      </c>
+      <c r="KP4">
+        <v>2505</v>
+      </c>
+      <c r="KQ4">
+        <v>2444</v>
+      </c>
+      <c r="KR4">
+        <v>3065</v>
+      </c>
+      <c r="KS4">
+        <v>2093</v>
+      </c>
+      <c r="KT4">
+        <v>2224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/img/PerformanceComparison.xlsx
+++ b/img/PerformanceComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritz/Desktop/git/sse-master-thesis/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2894F70-A6BC-E349-AE50-D14B16D407AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAF6CC05-5EE7-C04B-AA25-8748382BD0B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13240" yWindow="0" windowWidth="14080" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceComparison" sheetId="1" r:id="rId1"/>
@@ -20002,16 +20002,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>112067</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20040,16 +20040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>340667</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>263071</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20116,16 +20116,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>331716</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>189552</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>104297</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>35252</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290286</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20192,16 +20192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>345440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>800407</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20530,8 +20530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="69" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/img/PerformanceComparison.xlsx
+++ b/img/PerformanceComparison.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritz/Desktop/git/sse-master-thesis/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAF6CC05-5EE7-C04B-AA25-8748382BD0B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8E5FE5B-77EE-C94D-8DA7-B1EE8E4038A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="0" windowWidth="14080" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceComparison" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">PerformanceComparison!$A$3:$KT$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">PerformanceComparison!$A$4:$KT$4</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -4757,7 +4761,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Commit-File-Nr</a:t>
+                  <a:t>commit number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5050,3138 +5054,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>VarChange</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>PerformanceComparison!$A$1:$KT$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
-                <c:pt idx="0">
-                  <c:v>5663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1194</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1941</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2234</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1785</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1339</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1372</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2084</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2090</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1740</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2280</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2297</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1610</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>3174</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2236</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1224</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>3758</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>1320</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>1366</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>1928</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>1795</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>1228</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2072</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>1307</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>3488</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E454-084D-8952-BC699FC92E63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Change</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>PerformanceComparison!$A$2:$KT$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
-                <c:pt idx="0">
-                  <c:v>2928</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2480</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2289</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2783</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2466</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2540</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3198</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9220</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3113</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3073</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3068</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2186</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2233</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2092</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2103</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>2405</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2733</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>3224</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2547</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2615</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2159</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2444</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>2879</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>2715</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>2294</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2242</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>2224</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2797</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>1740</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2435</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>2447</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2451</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2659</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2676</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2706</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2133</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>2172</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2464</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2563</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2763</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2545</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2598</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2589</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2602</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2596</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E454-084D-8952-BC699FC92E63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Ref</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>PerformanceComparison!$A$3:$KT$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="306"/>
-                <c:pt idx="0">
-                  <c:v>2165</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2555</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2633</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1746</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1933</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2776</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2876</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2903</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2612</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2510</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2559</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1933</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2717</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2302</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2328</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1926</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2414</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2359</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2697</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2514</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2147</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2788</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2431</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2676</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2748</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2166</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3177</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2739</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2830</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2236</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2091</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2631</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2502</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2377</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2577</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2592</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2715</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2087</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2828</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2612</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2651</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2565</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2773</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>2539</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>2294</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>2544</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3303</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>2481</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>2467</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>2659</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2627</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2242</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2527</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2453</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2463</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2821</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2177</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2689</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1722</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2916</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2204</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2583</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2540</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2416</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2443</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2447</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2241</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2828</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2646</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1903</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>2638</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>2413</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2217</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>2917</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>2121</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>4148</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>2508</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2582</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>2379</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>2404</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>2449</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>3789</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>2285</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>2697</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>2384</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>2448</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>2821</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2804</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>2646</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>2517</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>2605</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>2181</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>2874</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2243</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>2694</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>2140</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>2246</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>2710</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2384</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1907</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2465</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>2440</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>2561</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>2516</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2418</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>2466</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1945</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1776</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>2385</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1803</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>2111</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1883</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>2777</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>2466</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>2415</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1813</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>2907</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2415</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>3021</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>2812</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2573</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>2465</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2597</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>2573</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>3058</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>2315</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1847</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>2698</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>2597</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1819</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>2408</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>2715</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>1826</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>2736</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>2894</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>2643</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>2528</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>2209</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>2388</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>2478</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>2824</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>2264</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>2255</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>2707</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>2231</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>2992</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>2331</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>1775</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>2695</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>2621</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>2699</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>2610</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>1901</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>1936</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>2729</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>3045</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>2428</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>2313</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>2434</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>2417</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>2093</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>2469</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>2462</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>2384</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>2377</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>2879</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>1816</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>3143</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>1875</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2455</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2538</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2063</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2292</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2548</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2340</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>1868</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2972</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2617</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2816</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2665</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2771</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2782</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2623</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2621</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2407</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2223</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2060</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2289</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2507</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2506</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>1836</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2091</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2510</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2481</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2120</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2458</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2558</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2899</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2084</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2349</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2332</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2160</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2372</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2849</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2953</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2497</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2403</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2736</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2371</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>1830</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>1812</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2556</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2563</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2248</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2636</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>2422</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>2774</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2683</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2527</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E454-084D-8952-BC699FC92E63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="188500064"/>
-        <c:axId val="227813872"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="188500064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Commit-File-Nr</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="227813872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="227813872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="188500064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
@@ -10125,7 +6997,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Commit-File-Nr</a:t>
+                  <a:t>commit number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10396,7 +7268,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -14480,7 +11352,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -16446,8 +13318,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Commit-File-Nr</a:t>
+                  <a:t>commit</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -16544,6 +13421,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>time in s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -16823,46 +13755,6 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -19482,522 +16374,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -20079,44 +16455,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>493067</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100623</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagramm 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7723F4A6-F562-DB47-9DF1-69B633ADCB5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>45357</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>9072</xdr:rowOff>
@@ -20146,7 +16484,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20184,7 +16522,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20222,7 +16560,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20530,8 +16868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="69" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/img/PerformanceComparison.xlsx
+++ b/img/PerformanceComparison.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritz/Desktop/git/sse-master-thesis/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8E5FE5B-77EE-C94D-8DA7-B1EE8E4038A7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FBA7743-9A98-004B-997A-703CF1D6BD9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="25960" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerformanceComparison" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">PerformanceComparison!$A$3:$KT$3</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">PerformanceComparison!$A$4:$KT$4</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">PerformanceComparison!$A$2:$KT$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">PerformanceComparison!$A$3:$KT$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2512,7 +2512,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2525,8 +2525,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Commit-File-Nr</a:t>
+                  <a:rPr lang="de-DE" sz="1500"/>
+                  <a:t>commit number</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2544,7 +2544,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2631,7 +2631,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2644,7 +2644,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1500"/>
                   <a:t>time in s</a:t>
                 </a:r>
               </a:p>
@@ -2663,7 +2663,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2724,6 +2724,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19737080645233326"/>
+          <c:y val="2.3941419798336635E-2"/>
+          <c:w val="0.26956584828356112"/>
+          <c:h val="7.0348591888660619E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2737,7 +2747,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4747,7 +4757,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4760,7 +4770,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1500"/>
                   <a:t>commit number</a:t>
                 </a:r>
               </a:p>
@@ -4779,7 +4789,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4867,7 +4877,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4880,7 +4890,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1500"/>
                   <a:t>time in s</a:t>
                 </a:r>
               </a:p>
@@ -4899,7 +4909,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4960,6 +4970,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1108496607194436E-2"/>
+          <c:y val="5.3571670787789655E-2"/>
+          <c:w val="0.35636509498461449"/>
+          <c:h val="7.0341439808975906E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4973,7 +4993,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6983,7 +7003,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6996,7 +7016,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1500"/>
                   <a:t>commit number</a:t>
                 </a:r>
               </a:p>
@@ -7015,7 +7035,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7102,7 +7122,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7115,7 +7135,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1500"/>
                   <a:t>time in s</a:t>
                 </a:r>
               </a:p>
@@ -7134,7 +7154,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7195,6 +7215,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19445859851141023"/>
+          <c:y val="0.1126267156804486"/>
+          <c:w val="0.30794222784113123"/>
+          <c:h val="5.3935743303924366E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7208,7 +7238,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -13317,14 +13347,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1500"/>
                   <a:t>commit</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:rPr lang="de-DE" sz="1500" baseline="0"/>
                   <a:t> number</a:t>
                 </a:r>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="de-DE" sz="1500"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -13428,7 +13458,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -13441,7 +13471,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" sz="1500"/>
                   <a:t>time in s</a:t>
                 </a:r>
               </a:p>
@@ -13460,7 +13490,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -13521,6 +13551,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1020814456539756E-2"/>
+          <c:y val="3.8875826593210892E-2"/>
+          <c:w val="0.3004773815752772"/>
+          <c:h val="7.0624575456946087E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13534,7 +13574,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -16868,8 +16908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="120" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
